--- a/dataviews.xlsx
+++ b/dataviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Data-Views/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E065A-8312-6F44-8381-8A20D9199BCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2B1035-E7A5-CB4E-BD1A-95C93B5F408A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="10" xr2:uid="{25534C8B-AA9D-E644-A91D-7F5BD4EE6B86}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" firstSheet="3" activeTab="13" xr2:uid="{25534C8B-AA9D-E644-A91D-7F5BD4EE6B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Job" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="JourneyActivity" sheetId="11" r:id="rId10"/>
     <sheet name="Bounce" sheetId="2" r:id="rId11"/>
     <sheet name="PushAddress" sheetId="12" r:id="rId12"/>
+    <sheet name="SMSMessageTracking" sheetId="13" r:id="rId13"/>
+    <sheet name="SMSSubscriptionLog" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="366">
   <si>
     <t>JobID</t>
   </si>
@@ -848,6 +850,336 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DATA EXTENSION DATA TYPE</t>
+  </si>
+  <si>
+    <t>MobileMessageTrackingID</t>
+  </si>
+  <si>
+    <t>Unique ID for tracking information related to the sent message</t>
+  </si>
+  <si>
+    <t>EID</t>
+  </si>
+  <si>
+    <t>Enterprise ID number for the sender</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Manufacturer identification for the sender</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>MessageID</t>
+  </si>
+  <si>
+    <t>Mobile message ID</t>
+  </si>
+  <si>
+    <t>KeywordID</t>
+  </si>
+  <si>
+    <t>Unique identifier for the keyword</t>
+  </si>
+  <si>
+    <t>unique identifier</t>
+  </si>
+  <si>
+    <t>CodeID</t>
+  </si>
+  <si>
+    <t>Unique identifier for the SMS code</t>
+  </si>
+  <si>
+    <t>ConversationID</t>
+  </si>
+  <si>
+    <t>Unique identifier for the SMS conversation</t>
+  </si>
+  <si>
+    <t>CampaignID</t>
+  </si>
+  <si>
+    <t>The SMS campaign tied to the record</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>If the message was sent (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>If the message was delivered (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>Undelivered</t>
+  </si>
+  <si>
+    <t>Whether the message was delivered successfully or not (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>Unsub</t>
+  </si>
+  <si>
+    <t>If the subscriber unsubscribed (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>OptIn</t>
+  </si>
+  <si>
+    <t>Whether the subscriber has opted in to SMS messages (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>OptOut</t>
+  </si>
+  <si>
+    <t>Whether the subscriber has opened out of SMS messages (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>If the message was outgoing (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>If the message was incoming (1 = true, 0 = false)</t>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+  </si>
+  <si>
+    <t>The date and time the tracking record was created</t>
+  </si>
+  <si>
+    <t>Date and time</t>
+  </si>
+  <si>
+    <t>ModifiedDateTime</t>
+  </si>
+  <si>
+    <t>The date and time the tracking record was modified</t>
+  </si>
+  <si>
+    <t>ActionDateTime</t>
+  </si>
+  <si>
+    <t>The actual date and time the message was sent or received</t>
+  </si>
+  <si>
+    <t>Date and Time</t>
+  </si>
+  <si>
+    <t>MessageText</t>
+  </si>
+  <si>
+    <t>The text of the message</t>
+  </si>
+  <si>
+    <t>navarchar</t>
+  </si>
+  <si>
+    <t>IsTest</t>
+  </si>
+  <si>
+    <t>If the message was a test message</t>
+  </si>
+  <si>
+    <t>MobileMessageRecurranceID</t>
+  </si>
+  <si>
+    <t>The ID of the recurrence schedule for the message. Can be used for troubleshooting send issues.</t>
+  </si>
+  <si>
+    <t>ResponseToMobileMessageTrackingID</t>
+  </si>
+  <si>
+    <t>The tracking ID of the response to the message</t>
+  </si>
+  <si>
+    <t>IsValid</t>
+  </si>
+  <si>
+    <t>If the message is valid</t>
+  </si>
+  <si>
+    <t>InvalidationCode</t>
+  </si>
+  <si>
+    <t>Invalidation code for the message</t>
+  </si>
+  <si>
+    <t>SendID</t>
+  </si>
+  <si>
+    <t>The send ID number for the SMS send</t>
+  </si>
+  <si>
+    <t>SendSplitID</t>
+  </si>
+  <si>
+    <t>If the message was split, the ID of the split</t>
+  </si>
+  <si>
+    <t>SendSegmentID</t>
+  </si>
+  <si>
+    <t>The ID of the segment tied to the message</t>
+  </si>
+  <si>
+    <t>SendJobID</t>
+  </si>
+  <si>
+    <t>The job ID for the SMS send</t>
+  </si>
+  <si>
+    <t>SendGroupID</t>
+  </si>
+  <si>
+    <t>The group ID for the SMS send</t>
+  </si>
+  <si>
+    <t>SendPersonID</t>
+  </si>
+  <si>
+    <t>The sendperson ID for the SMS send</t>
+  </si>
+  <si>
+    <t>The subscriber ID for the affected subscriber. This number represents the unique ID for each subscriber record</t>
+  </si>
+  <si>
+    <t>LogDate</t>
+  </si>
+  <si>
+    <t>The date the subscription is logged</t>
+  </si>
+  <si>
+    <t>MobileSubscriptionID</t>
+  </si>
+  <si>
+    <t>The unique ID of the subscription record</t>
+  </si>
+  <si>
+    <t>SubscriptionDefinitionID</t>
+  </si>
+  <si>
+    <t>The unique keyword ID</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>Whether the subscriber has opted out of SMS messages. See key for values.</t>
+  </si>
+  <si>
+    <t>Method the subscriber used to opt out of SMS messages. See key for values.</t>
+  </si>
+  <si>
+    <t>Date the subscriber opted out of SMS messages</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Whether the subscriber has opted in to SMS message. See key for values.</t>
+  </si>
+  <si>
+    <t>Method the subscriber used to opt in to SMS messages. See key for values.</t>
+  </si>
+  <si>
+    <t>Date the subscriber opted in to SMS messages</t>
+  </si>
+  <si>
+    <t>The subscription source</t>
+  </si>
+  <si>
+    <t>Date the message was created</t>
+  </si>
+  <si>
+    <t>Date the message was modified</t>
+  </si>
+  <si>
+    <t>OptOutStatusID Key</t>
+  </si>
+  <si>
+    <t>NotOptedOut = 0
+OptedOut = 1
+DeletingNotOptedOut = 10
+DeletingOptedOut = 11</t>
+  </si>
+  <si>
+    <t>OptOutMethodID Key</t>
+  </si>
+  <si>
+    <t>INSERT INTO #SubscriptionOptOutMethodPriming(SubscriptionOptOutMethodID,Name)
+0 = Unspecified
+1 = WebCollect
+2 = API
+3 = FTAF
+4 = Import
+5 = MoveCopy
+6 = Application
+7 = SalesForce
+8 = Segmentation
+9 = GenericExtension
+10 = CustomObject
+11 = RMM
+13 = ServiceFeedback
+14 = MobileOriginated
+15 = Contacts Suppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptInStatusID Key
+</t>
+  </si>
+  <si>
+    <t>NotOptedIn = 0
+OptInPending = 1
+OptedIn = 2
+DeletingNotOptedIn = 10
+DeletingOptInPending = 11
+DeletingOptedIn = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptInMethodID Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = Unspecified
+1 = WebCollect
+2 = API
+3 = FTAF
+4 = Import
+5 = MoveCopy
+6 = Application
+7 = SalesForce
+8 = Segmentation
+9 = GenericExtension
+10 = CustomObject
+11 = RMM
+12 = Mobile Opt-In
+13 = DeviceRegistration
+</t>
   </si>
 </sst>
 </file>
@@ -904,11 +1236,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2454,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5CB04D-6BB5-A643-86C8-F1EA931B294C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2942,7 +3280,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,6 +3685,1307 @@
       </c>
       <c r="C36">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3E1587-8C2A-114B-ADE6-BBD578B58851}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>254</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>254</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>254</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C279CDF-05CC-6941-9703-EE25FB101757}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
